--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,15 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>iWEALTH</t>
   </si>
   <si>
@@ -491,7 +485,19 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>10.0.0</t>
+    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
   </si>
 </sst>
 </file>
@@ -991,7 +997,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1076,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1126,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1176,7 +1182,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,10 +1195,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,10 +1206,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1236,10 +1242,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1250,10 +1256,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,10 +1267,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,10 +1278,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="149">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -473,31 +470,22 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>VIVO_Y17_Android_9.0.0_41f40</t>
-  </si>
-  <si>
-    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
-  </si>
-  <si>
-    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG51_Android_11.0.0_d7f45</t>
-  </si>
-  <si>
-    <t>HUAWEI_Y6_Android_8.0.0_029bf</t>
-  </si>
-  <si>
-    <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
-  </si>
-  <si>
-    <t>OPPO_F7_Android_10.0.0_f14bd</t>
-  </si>
-  <si>
-    <t>8.0.0</t>
+    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
+  </si>
+  <si>
+    <t>REALME_8s_Android_11.0.0_403e0</t>
+  </si>
+  <si>
+    <t>ONEPLUS_Nord2_Android_11.0.0_9e5b2</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
+  </si>
+  <si>
+    <t>VIVO_Y15_Android_9.0.0_6bc8e</t>
+  </si>
+  <si>
+    <t>https://ind-west.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -985,7 +973,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1120,7 +1108,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1167,105 +1155,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E1" s="20" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1284,216 +1225,108 @@
       <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1512,26 +1345,8 @@
       <c r="F9" s="18">
         <v>5</v>
       </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1548,24 +1363,6 @@
         <v>32</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
